--- a/Data/MatrizPrecisionesModelos.xlsx
+++ b/Data/MatrizPrecisionesModelos.xlsx
@@ -470,7 +470,7 @@
         <v>0.8231578947368421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7863718789231412</v>
+        <v>0.7864565689576151</v>
       </c>
       <c r="D2" t="n">
         <v>0.6840796019900498</v>
@@ -479,7 +479,7 @@
         <v>0.04072096128170895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.655007137735537</v>
+        <v>0.6550325447458791</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>0.7373684210526316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.787590751184</v>
+        <v>0.7876123388398462</v>
       </c>
       <c r="D3" t="n">
         <v>0.3034825870646766</v>
@@ -501,7 +501,7 @@
         <v>0.2516688918558078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7397816703147183</v>
+        <v>0.7397881466114721</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8247368421052632</v>
+        <v>0.8242105263157895</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8315332549535368</v>
+        <v>0.8285807278693316</v>
       </c>
       <c r="D6" t="n">
-        <v>0.818407960199005</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00267022696929239</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6275640247920681</v>
+        <v>0.6280138965072046</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8052631578947368</v>
+        <v>0.7805263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8301699114573994</v>
+        <v>0.8251765206012662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2960199004975124</v>
+        <v>0.3009950248756219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1675567423230975</v>
+        <v>0.1975967957276369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7813631284935731</v>
+        <v>0.7686704412726614</v>
       </c>
     </row>
     <row r="8">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8542105263157894</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.857815395651914</v>
+        <v>0.8573205401563611</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5398009950248757</v>
+        <v>0.5497512437810945</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04005340453938585</v>
+        <v>0.03938584779706275</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7332483650191176</v>
+        <v>0.7294016653434395</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8284210526315789</v>
+        <v>0.8178947368421052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7037276899879773</v>
+        <v>0.7689423377106458</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5124378109452736</v>
+        <v>0.3159203980099503</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0801068090787717</v>
+        <v>0.1461949265687583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6854332623300474</v>
+        <v>0.7617602703928185</v>
       </c>
     </row>
     <row r="12">
@@ -687,41 +687,41 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8310526315789474</v>
+        <v>0.8231578947368421</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7654567615859289</v>
+        <v>0.7613600887418714</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3482587064676617</v>
+        <v>0.3457711442786069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1208277703604806</v>
+        <v>0.1315086782376502</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7558328419738144</v>
+        <v>0.7522934033367699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RedesNeuronales1</t>
+          <t>RedesNeuronales</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8326315789473684</v>
+        <v>0.8315789473684211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7063979169572697</v>
+        <v>0.7248404174056288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5124378109452736</v>
+        <v>0.4601990049751244</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07476635514018691</v>
+        <v>0.09012016021361816</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6878775037747807</v>
+        <v>0.7091802389220366</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MatrizPrecisionesModelos.xlsx
+++ b/Data/MatrizPrecisionesModelos.xlsx
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8178947368421052</v>
+        <v>0.8242105263157895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7689423377106458</v>
+        <v>0.7674876618243893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3159203980099503</v>
+        <v>0.3308457711442786</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1461949265687583</v>
+        <v>0.1341789052069426</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7617602703928185</v>
+        <v>0.7591655481289358</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +687,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8231578947368421</v>
+        <v>0.8215789473684211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7613600887418714</v>
+        <v>0.7621787590751185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3457711442786069</v>
+        <v>0.3407960199004975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1315086782376502</v>
+        <v>0.1348464619492657</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7522934033367699</v>
+        <v>0.7534638409386557</v>
       </c>
     </row>
     <row r="13">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8315789473684211</v>
+        <v>0.8278947368421052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7248404174056288</v>
+        <v>0.7006639034467184</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4601990049751244</v>
+        <v>0.5199004975124378</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09012016021361816</v>
+        <v>0.0787716955941255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7091802389220366</v>
+        <v>0.6819971899339645</v>
       </c>
     </row>
   </sheetData>
